--- a/mapping_schemes/central/COG_RES.xlsx
+++ b/mapping_schemes/central/COG_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/Central/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A5A21E-1340-104D-84AE-769A9BF3AFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7EF8C-94A1-724A-91EA-B8176E2420E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="14300" windowHeight="17120" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="13220" yWindow="700" windowWidth="14300" windowHeight="17120" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="87">
   <si>
     <t>Urban</t>
   </si>
@@ -2771,10 +2771,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2991,21 +2991,21 @@
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>0.4</v>
@@ -3030,35 +3030,35 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3080,16 +3080,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>0.5</v>
@@ -3108,32 +3108,59 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
@@ -3216,9 +3243,9 @@
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -3233,7 +3260,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -3248,11 +3275,11 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
@@ -3308,6 +3335,11 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3319,7 +3351,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
